--- a/exam_seating_planner/desk_cards_ACADEMIA Lalmatia_Afternoon.xlsx
+++ b/exam_seating_planner/desk_cards_ACADEMIA Lalmatia_Afternoon.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,99 +533,116 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Column 1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Column 2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Column 3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Column 4</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Column 5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Column 6</t>
+        </is>
+      </c>
+    </row>
     <row r="15">
-      <c r="B15" t="n">
-        <v>5060</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
+        <v>5026</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5027</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5042</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5044</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="n">
+        <v>5001</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5028</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5041</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="n">
+        <v>5029</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5040</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="n">
+        <v>5031</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5039</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5048</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="n">
+        <v>5032</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5038</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5049</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="n">
+        <v>5033</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5037</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="n">
         <v>5035</v>
       </c>
-      <c r="D15" t="n">
-        <v>5037</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5053</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5054</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="n">
-        <v>5062</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5069</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5038</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="G21" t="n">
         <v>5051</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5055</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="n">
-        <v>5063</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5068</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5039</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5050</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5057</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="n">
-        <v>5064</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5067</v>
-      </c>
-      <c r="D18" t="n">
-        <v>5040</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5049</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5059</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="n">
-        <v>5065</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5041</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5048</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="n">
-        <v>5066</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5042</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5047</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="n">
-        <v>5046</v>
       </c>
     </row>
     <row r="22">
@@ -634,8 +651,16 @@
           <t>Entry / Fire Exit</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>5044</v>
+      <c r="F22" t="n">
+        <v>5034</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5053</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="G23" t="n">
+        <v>5054</v>
       </c>
     </row>
     <row r="24">
@@ -646,6 +671,64 @@
       </c>
       <c r="C24" t="n">
         <v>37</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5055</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="G25" t="n">
+        <v>5057</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="G26" t="n">
+        <v>5059</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="G27" t="n">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="G28" t="n">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="G29" t="n">
+        <v>5063</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="G30" t="n">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="G31" t="n">
+        <v>5065</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="G32" t="n">
+        <v>5066</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="G33" t="n">
+        <v>5067</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="G34" t="n">
+        <v>5068</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="G35" t="n">
+        <v>5069</v>
       </c>
     </row>
   </sheetData>
